--- a/ONCHO/OEM/Guinea Conakry/gn_oncho_oem_2_participant_202205.xlsx
+++ b/ONCHO/OEM/Guinea Conakry/gn_oncho_oem_2_participant_202205.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\OEM\Guinea Conakry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2248863-D742-43B9-AF3B-10B721377749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BCEAA4-077E-4861-974A-D8DBDEF0491B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>type</t>
   </si>
@@ -144,9 +144,6 @@
     <t>list_name</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>region_list</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Avr 2022) OEM - 2. Participant Form</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
@@ -283,6 +277,9 @@
   </si>
   <si>
     <t>Sélectionnez la Sous prefecture</t>
+  </si>
+  <si>
+    <t>(Mai 2022) CEO - 2. Formulaire participant</t>
   </si>
 </sst>
 </file>
@@ -727,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -803,17 +800,17 @@
         <v>15</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="13" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -832,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="13"/>
@@ -850,10 +847,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="13"/>
@@ -874,7 +871,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="13"/>
@@ -895,7 +892,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="13"/>
@@ -918,7 +915,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="13"/>
@@ -939,7 +936,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -956,13 +953,13 @@
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1">
       <c r="A9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -977,16 +974,16 @@
     </row>
     <row r="10" spans="1:14" ht="47">
       <c r="A10" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>17</v>
@@ -997,13 +994,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>17</v>
@@ -1014,19 +1011,19 @@
         <v>18</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>78</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>17</v>
@@ -1040,14 +1037,14 @@
         <v>28</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
@@ -1065,11 +1062,11 @@
         <v>29</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="17"/>
       <c r="H14" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>17</v>
@@ -1083,10 +1080,10 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>17</v>
@@ -1100,10 +1097,10 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J16" s="15"/>
     </row>
@@ -1115,7 +1112,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J17" s="15"/>
     </row>
@@ -1158,7 +1155,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
@@ -1177,87 +1174,87 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1">
       <c r="A4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1">
       <c r="A5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1">
       <c r="A6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>45</v>
-      </c>
       <c r="C6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="12"/>
@@ -1547,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7"/>
@@ -1559,24 +1556,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
